--- a/bin/config/xlsx/global_variable.xlsx
+++ b/bin/config/xlsx/global_variable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\turn-based-game\bin\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\turn-based-game\bin\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E36FDB-5E68-42FB-BCC3-0D36D5CED23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="global_variable" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -33,11 +32,15 @@
   <si>
     <t>common</t>
   </si>
+  <si>
+    <t>design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -353,71 +356,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>9</v>
       </c>
